--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="150">
   <si>
     <t>function</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>Name Model</t>
+  </si>
+  <si>
+    <t>ancestors</t>
+  </si>
+  <si>
+    <t>path factor</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +660,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1556,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9460" windowHeight="6181" tabRatio="707" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="270">
   <si>
     <t>function</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Id model</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>FactorName</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t>Name Model</t>
   </si>
   <si>
-    <t>ancestors</t>
-  </si>
-  <si>
     <t>path factor</t>
   </si>
   <si>
@@ -702,13 +696,1139 @@
   </si>
   <si>
     <t>http://10.15.171.35:8080/rating/delete</t>
+  </si>
+  <si>
+    <t>PathFactor</t>
+  </si>
+  <si>
+    <t>FactorOption</t>
+  </si>
+  <si>
+    <t>List(FactorOptionName : String, Description : String, Score : Double, Fatal : String, Status : String)</t>
+  </si>
+  <si>
+    <t>List(FactorId : String, Weigth : Double)</t>
+  </si>
+  <si>
+    <t>get all factor</t>
+  </si>
+  <si>
+    <t>get by id</t>
+  </si>
+  <si>
+    <t>factor/getbyfactorid</t>
+  </si>
+  <si>
+    <t>{"id":"..."}</t>
+  </si>
+  <si>
+    <t>insert factor</t>
+  </si>
+  <si>
+    <t>factor/insert</t>
+  </si>
+  <si>
+    <t>{"ModelId":"...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weigth":"...", "Ordinal":"...", "Status":"...","Note":"..."}</t>
+  </si>
+  <si>
+    <t>insert factorOption</t>
+  </si>
+  <si>
+    <t>factor/insertOption</t>
+  </si>
+  <si>
+    <t>{"Description":"...", "FactorOptionName":"...", "Fatal":"...", "Score":"...", "Status":"...", "FactorId":"..."}</t>
+  </si>
+  <si>
+    <t>get all model</t>
+  </si>
+  <si>
+    <t>modelinfo/insert</t>
+  </si>
+  <si>
+    <t>modelinfo/delete</t>
+  </si>
+  <si>
+    <t>get model by id</t>
+  </si>
+  <si>
+    <t>insert model</t>
+  </si>
+  <si>
+    <t>{"name":"...", "description":"...","status":"..."}</t>
+  </si>
+  <si>
+    <t>delete model</t>
+  </si>
+  <si>
+    <t>modelinfo/getbymodelinfoid</t>
+  </si>
+  <si>
+    <t>update model</t>
+  </si>
+  <si>
+    <t>modelinfo/update</t>
+  </si>
+  <si>
+    <t>{"id":"...", "name":"...", "description":"...","status":"..."}</t>
+  </si>
+  <si>
+    <t>view model</t>
+  </si>
+  <si>
+    <t>modelinfo/view</t>
+  </si>
+  <si>
+    <t>modelinfo/range</t>
+  </si>
+  <si>
+    <t>modelinfo/rangeandupdate</t>
+  </si>
+  <si>
+    <t>modelinfo/getall</t>
+  </si>
+  <si>
+    <t>factor/getall</t>
+  </si>
+  <si>
+    <t>{
+    "ModelInfosList": [
+        {
+            "name": "model1",
+            "description": "description",
+            "min": 0.6985,
+            "_id": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "max": 4.4375,
+            "status": "1"
+        },
+        {
+            "name": "model2",
+            "description": "description2",
+            "min": 0,
+            "_id": "U4TSNWFX20MS1XUAH0IVABFKQ0K114P5",
+            "max": 0,
+            "status": "1"
+        },
+        {
+            "name": "model3",
+            "description": "description3",
+            "min": 0,
+            "_id": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "max": 0,
+            "status": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>{
+    "ModelInfosList": [
+        {
+            "name": "model3",
+            "description": "description3",
+            "min": 0,
+            "_id": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "max": 0,
+            "status": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": [
+        {
+            "name": "model3",
+            "description": "description3",
+            "min": 0,
+            "_id": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "max": 0,
+            "status": "1"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": "DELETED"
+}</t>
+  </si>
+  <si>
+    <t>range model : tính và trả về scoring range</t>
+  </si>
+  <si>
+    <t>range and update : tính và update scoring range vào bảng model</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": [
+        {
+            "FactorOption": [],
+            "ModelId": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "Note": "note",
+            "FactorName": "Factor test lv 2",
+            "Description": "",
+            "_id": "6e4869e3-09d7-4d27-8ffc-6f0c4b646985",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+            "ParentName": "Factor test lv 1",
+            "Status": "status",
+            "Weigth": 17
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": {
+        "name": "model1",
+        "description": "description",
+        "min": 0.6985,
+        "_id": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+        "max": 4.4375,
+        "status": "1"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": [
+        0.6985,
+        4.4375
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "FactorsList": [
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Maturity &amp; Reliability",
+            "Description": "",
+            "_id": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "Ordinal": 1,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "status",
+            "Weigth": 17
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Financial Capability",
+            "Description": "",
+            "_id": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "Ordinal": 2,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weigth": 33
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Debt Service Cover",
+            "Description": "",
+            "_id": "34a3eb8b-8e1b-46df-98a4-42898340fe5c",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weigth": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Ratio of Fixed to Variable Income",
+            "Status": "1",
+            "Weigth": 20
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Loan Purpose",
+            "Description": "",
+            "_id": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+            "Ordinal": 3,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weigth": 8
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Credit History",
+            "Description": "",
+            "_id": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "Ordinal": 4,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weigth": 42
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "31 to 40 years",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "21 to 30 years",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "41 to 50 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "over 50",
+                    "Score": 2,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Current Age",
+            "Description": "",
+            "_id": "c6b3ef5b-6ec5-4e63-8712-ed80c5e0aa85",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weigth": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Grade School",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "High School",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "College Degree",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "MBA or Post Graduate",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Doctorate Degree",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Level of Education",
+            "Description": "",
+            "_id": "80d0d620-9c44-4bc0-941b-f49ee55dec9e",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weigth": 20
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "None",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "1 to 3 dependents",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "4 to 6 dependents",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "7 to 10 dependents",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "More than 10 dependents",
+                    "Score": 4,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "No. of Dependents",
+            "Description": "",
+            "_id": "aa90fa41-df43-4475-a60a-3275708eeb52",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weigth": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Not cooperative",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Information not reliable",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Generally cooperative &amp; information reliable",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Fully cooperative &amp; information reliable",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Cooperation in Providing Information",
+            "Description": "",
+            "_id": "ed915f54-93a5-4c30-a0c4-76f17186b77d",
+            "Ordinal": 5,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weigth": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared at least 5 times loan amount",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared greater than loan amount but withiin 5 times",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared less than loan amount",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No other properties declared",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Ownership of Other Unencumbered Properties",
+            "Description": "",
+            "_id": "0ab79610-29fe-43fd-913a-f9c0cfc67988",
+            "Ordinal": 6,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weigth": 20
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "2 to 5 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "6 to 10 years",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "11 to 15 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "16 to 25 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 25 years",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Total Years in Line of Business / Profession",
+            "Description": "",
+            "_id": "b44c2bb7-f3dc-4330-9d93-d38e8c0d4c35",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weigth": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weigth": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "2 to 4 years",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "5 to 6 years",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "7 to 10 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "11 to 15 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 15 years",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "No. of Years in Current Employment / Business",
+            "Description": "",
+            "_id": "9eca2500-adf7-4b06-ad00-7011e3297e87",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weigth": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weigth": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Sole Proprietorship or Partnership (less than 10 people)",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Small Company (10 to 50 people)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Middle Market (Over 50 people)",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Government Agency",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Large Corporation",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Type of Company (Current Business / Employer)",
+            "Description": "",
+            "_id": "0f051169-f704-4ca9-8786-8d632762fda4",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weigth": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weigth": 10
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Excellent (over 300% debt service coverage)",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Strong (251 - 300% debt service coverage)",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Acceptable (151 - 250% debt service coverage)",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Fair (101 - 150% debt service coverage)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Weak (up to 100% debt service coverage)",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Debt Service Cover",
+            "Description": "",
+            "_id": "7248093f-11ee-4fda-8aa0-e1459fb1d826",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weigth": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weigth": 30
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of home for primary residence",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Renovate owner occupied home",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of additional home for owner occupation",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Refinance existing loan",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of commercial property (e.g. house for rental)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Renovate commercial property",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Investment (e.g. share purchase, property investment)",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Other (e.g. Car Loan)",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Loan Purpose",
+            "Description": "",
+            "_id": "877334f8-1bd5-4304-a2d6-577186d357dc",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+                    "Weigth": 8
+                }
+            ],
+            "Parentid": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+            "ParentName": "Loan Purpose",
+            "Status": "1",
+            "Weigth": 100
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No payment delays in past 5 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No payment delays in past 12 months",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "New customer",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "One payment delay in past 12 months",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Multiple payment delays in past twelve months",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Severe payment delays observed",
+                    "Score": 0,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Payment History",
+            "Description": "",
+            "_id": "a0336499-61e8-4d0e-b8bb-069d2c6f3d66",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weigth": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weigth": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Enjoys credit facilities with more than 2 other banks with satisfactory credit history",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Satisfactory credit history with at least one other bank",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No credit history",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Unfavorable credit history at any bank / creditor",
+                    "Score": 0,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Dealings with Other Banks",
+            "Description": "",
+            "_id": "9fd2e7db-b36d-49e9-9b85-b894d98318b3",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weigth": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weigth": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 5 years of favorable credit card handling",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "3 to 5 years of favorable credit card handling",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "1 to 2 years of favorable  credit card handling",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year of favorable credit card handling",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Years of Satisfactory Credit Card Handling",
+            "Description": "",
+            "_id": "285125c3-cf7f-40ae-89f2-f7df1e309433",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weigth": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weigth": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit more than 10 times monthly loan repayments",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit 4 - 6 times monthly loan repayments",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit 1 - 3 times monthly loan repayments",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit less than monthly loan repayments",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Aggregate Card Limit / Amortization",
+            "Description": "",
+            "_id": "efa83998-a003-4849-a71c-baeed95db695",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weigth": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weigth": 25
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "Note": "note",
+            "FactorName": "Factor test lv 2",
+            "Description": "",
+            "_id": "6e4869e3-09d7-4d27-8ffc-6f0c4b646985",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+                    "Weigth": 17
+                }
+            ],
+            "Parentid": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+            "ParentName": "Factor test lv 1",
+            "Status": "status",
+            "Weigth": 17
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "FactorsList": [
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Maturity &amp; Reliability",
+            "Description": "",
+            "_id": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "Ordinal": 1,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "status",
+            "Weigth": 17
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": [
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Maturity &amp; Reliability",
+            "Description": "",
+            "_id": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "Ordinal": 1,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "status",
+            "Weigth": 17
+        }
+    ]
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,6 +1860,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -784,7 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,6 +1931,19 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,7 +2005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -899,7 +2040,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,21 +2249,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D18"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.296875" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1136,7 +2277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +2285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -1152,7 +2293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1163,7 +2304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -1177,7 +2318,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1191,7 +2332,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -1202,7 +2343,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>116</v>
       </c>
@@ -1213,7 +2354,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
@@ -1227,7 +2368,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -1241,7 +2382,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
@@ -1255,7 +2396,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>131</v>
       </c>
@@ -1269,7 +2410,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>132</v>
       </c>
@@ -1283,7 +2424,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +2438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1308,7 +2449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1319,7 +2460,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1330,7 +2471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1339,6 +2480,130 @@
       </c>
       <c r="C18" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1355,14 +2620,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.296875" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +2646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +2654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +2662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +2673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +2687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1433,7 +2698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1444,7 +2709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1455,7 +2720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1479,14 +2744,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +2770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1516,7 +2781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +2792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1538,7 +2803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +2817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1563,7 +2828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1581,22 +2846,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.09765625" style="2"/>
+    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1610,7 +2875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1618,7 +2883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>137</v>
       </c>
@@ -1632,7 +2897,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -1643,7 +2908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -1654,9 +2919,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
@@ -1665,7 +2930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>113</v>
       </c>
@@ -1676,7 +2941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1684,129 +2949,125 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>143</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10">
-        <v>42198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="10">
-        <v>42198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D12" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D15" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="D17" s="10">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +3081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +3092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +3114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1862,6 +3123,74 @@
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1878,16 +3207,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1901,7 +3230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +3238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -1920,21 +3249,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10">
         <v>42198</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1942,7 +3271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -1950,7 +3279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -1958,7 +3287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1966,7 +3295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -1980,7 +3309,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
@@ -1994,7 +3323,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>102</v>
       </c>
@@ -2008,7 +3337,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
@@ -2022,7 +3351,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>129</v>
       </c>
@@ -2036,7 +3365,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>131</v>
       </c>
@@ -2050,7 +3379,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>132</v>
       </c>
@@ -2077,19 +3406,19 @@
   </sheetPr>
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -2103,7 +3432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -2113,7 +3442,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>137</v>
       </c>
@@ -2125,19 +3454,19 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>139</v>
       </c>
@@ -2147,7 +3476,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -2157,7 +3486,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>141</v>
       </c>
@@ -2167,7 +3496,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -2181,7 +3510,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
@@ -2195,7 +3524,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -2209,7 +3538,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
@@ -2223,7 +3552,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>131</v>
       </c>
@@ -2237,7 +3566,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>132</v>
       </c>
@@ -2251,838 +3580,838 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>152</v>
       </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>153</v>
       </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="F69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>154</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>216</v>
+      </c>
+      <c r="F99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>162</v>
       </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="F103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+    </row>
+    <row r="138" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>219</v>
+      </c>
+      <c r="E138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>220</v>
+      </c>
+      <c r="E139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>222</v>
+      </c>
+      <c r="E141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>193</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>156</v>
-      </c>
-      <c r="F70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>194</v>
-      </c>
-      <c r="F71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F75" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F77" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F85" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F86" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F88" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F91" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>150</v>
-      </c>
-      <c r="F96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>217</v>
-      </c>
-      <c r="F98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>218</v>
-      </c>
-      <c r="F99" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>194</v>
-      </c>
-      <c r="F101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>164</v>
-      </c>
-      <c r="F103" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F104" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F105" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F106" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F107" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F108" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F109" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F111" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F112" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F114" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F115" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F118" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F119" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F120" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F121" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F122" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F123" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F124" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F125" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F126" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F128" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>193</v>
-      </c>
-      <c r="E137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>221</v>
-      </c>
-      <c r="E138" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>222</v>
-      </c>
-      <c r="E139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>223</v>
-      </c>
-      <c r="E140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>224</v>
-      </c>
-      <c r="E141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>164</v>
-      </c>
-      <c r="E142" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E143" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E144" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E145" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E146" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E147" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E148" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E149" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E150" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E151" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E152" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E154" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E155" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E156" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E157" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E158" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E159" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E160" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3104,14 +4433,14 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3122,7 +4451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +4459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3138,7 +4467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +4475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3157,7 +4486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +4497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -3182,7 +4511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -3193,7 +4522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3204,7 +4533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3215,7 +4544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3239,15 +4568,15 @@
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8984375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -3261,7 +4590,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3269,7 +4598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -3277,7 +4606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -3288,7 +4617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -3296,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +4636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -3318,7 +4647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3326,7 +4655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -3337,7 +4666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +4677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
@@ -3362,7 +4691,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>106</v>
       </c>
@@ -3376,7 +4705,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +4719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +4730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3412,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +4752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3447,14 +4776,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3465,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3473,7 +4802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3481,7 +4810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3489,7 +4818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3497,7 +4826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3505,7 +4834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3513,7 +4842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3524,7 +4853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -3551,14 +4880,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3577,7 +4906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3588,7 +4917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3599,7 +4928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +4942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -3624,7 +4953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3648,14 +4977,14 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3666,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3674,7 +5003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +5014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3696,7 +5025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +5039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -3721,7 +5050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="9" r:id="rId1"/>
@@ -903,14 +903,6 @@
         "max": 4.4375,
         "status": "1"
     }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "SUCCESS": [
-        0.6985,
-        4.4375
-    ]
 }</t>
   </si>
   <si>
@@ -1821,6 +1813,14 @@
             "Weigth": 17
         }
     ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": {
+        "min": "0.6985",
+        "max": "4.4375"
+    }
 }</t>
   </si>
 </sst>
@@ -2251,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2589,7 @@
         <v>231</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>231</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>234</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>237</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="707" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="707" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,14 @@
     <sheet name="groupmodule" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="group" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="groupmodulerole" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Scoreresult" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="258">
   <si>
     <t>Field</t>
   </si>
@@ -1351,7 +1352,7 @@
     <t>Tinh diem</t>
   </si>
   <si>
-    <t>  {  </t>
+    <t>{</t>
   </si>
   <si>
     <t>FactorId</t>
@@ -1396,454 +1397,419 @@
     <t>Cách 1: thêm nhiều code dạng Array</t>
   </si>
   <si>
+    <t>"moduleid":"hjkhkjdhkjshdkjhsd",</t>
+  </si>
+  <si>
+    <t>"codein":</t>
+  </si>
+  <si>
+    <t>"_id": "07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
+  </si>
+  <si>
+    <t>[{</t>
+  </si>
+  <si>
+    <t>"moduleid": "hjkhkjdhkjshdkjhsd",</t>
+  </si>
+  <si>
+    <t>"code":"AAA",</t>
+  </si>
+  <si>
+    <t>"modulename": "",</t>
+  </si>
+  <si>
+    <t>"status":"A",</t>
+  </si>
+  <si>
+    <t>"codein": [</t>
+  </si>
+  <si>
+    <t>"statusname":"Approve",</t>
+  </si>
+  <si>
+    <t>"scorefrom":"1.01",</t>
+  </si>
+  <si>
+    <t>"scorefrom": 1.01,</t>
+  </si>
+  <si>
+    <t>"scoreto":"1.20"</t>
+  </si>
+  <si>
+    <t>"statusname": "Approve",</t>
+  </si>
+  <si>
+    <t>},{</t>
+  </si>
+  <si>
+    <t>"code": "AAA",</t>
+  </si>
+  <si>
+    <t>"code":"AA",</t>
+  </si>
+  <si>
+    <t>"note": "",</t>
+  </si>
+  <si>
+    <t>"status": "A",</t>
+  </si>
+  <si>
+    <t>"scoreto": 1.2</t>
+  </si>
+  <si>
+    <t>"scorefrom":"1.20",</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>"scoreto":"1.30"</t>
+  </si>
+  <si>
+    <t>}]</t>
+  </si>
+  <si>
+    <t>"scorefrom": 1.2,</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>"code": "AA",</t>
+  </si>
+  <si>
+    <t>"scoreto": 1.3</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Cachs2: Chỉ đẩy lên 1</t>
+  </si>
+  <si>
+    <t>"moduleid":"h122222jshd22211kjh5555sd",</t>
+  </si>
+  <si>
+    <t>"_id": "2a705e69-00a4-4121-bb99-f90db5d36d40",</t>
+  </si>
+  <si>
+    <t>"moduleid": "h122222jshd22211kjh5555sd",</t>
+  </si>
+  <si>
+    <t>http://10.15.171.35:8080/rating/update</t>
+  </si>
+  <si>
+    <t>"_id":"07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
+  </si>
+  <si>
+    <t>Đẩy lên _id</t>
+  </si>
+  <si>
+    <t>"SUCCESS": [</t>
+  </si>
+  <si>
+    <t>Code cần sử ví dụ là AAA</t>
+  </si>
+  <si>
+    <t>"scorefrom":"1.40",</t>
+  </si>
+  <si>
+    <t>"scoreto":"1.50"</t>
+  </si>
+  <si>
+    <t>"scorefrom": 1.4,</t>
+  </si>
+  <si>
+    <t>"scoreto": 1.5</t>
+  </si>
+  <si>
+    <t>Trường hợp thêm 1 code chưa có thì cũng tương tự</t>
+  </si>
+  <si>
+    <t>"code":"BBB",</t>
+  </si>
+  <si>
+    <t>"status":"B",</t>
+  </si>
+  <si>
+    <t>"code": "BBB",</t>
+  </si>
+  <si>
+    <t>"status": "B",</t>
+  </si>
+  <si>
+    <t>http://10.15.171.35:8080/rating/delete</t>
+  </si>
+  <si>
+    <t>"code":"AAA"</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rolename</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>controlid</t>
+  </si>
+  <si>
+    <t>tên control html map với giao diện</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>trạng thái : 0: deactive,1: active</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>rolelistangular</t>
+  </si>
+  <si>
+    <t>trả về danh sách role</t>
+  </si>
+  <si>
+    <t>roledelete</t>
+  </si>
+  <si>
+    <t>xóa role theo roleid</t>
+  </si>
+  <si>
+    <t>getroledetailangular</t>
+  </si>
+  <si>
+    <t>trả về object role theoroleid</t>
+  </si>
+  <si>
+    <t>actionroledetailangular</t>
+  </si>
+  <si>
+    <t>thêm,sửa bản ghi role</t>
+  </si>
+  <si>
+    <t>Date add</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>đường dẫn module</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>id module cha</t>
+  </si>
+  <si>
+    <t>tên  module cha</t>
+  </si>
+  <si>
+    <t>DisplayForGuess</t>
+  </si>
+  <si>
+    <t>cho phép hiển thị cho guess: 0: false,1: true</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Giá trị Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Giá trị Max</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>modulelistangular</t>
+  </si>
+  <si>
+    <t>trả về danh sách module</t>
+  </si>
+  <si>
+    <t>moduledelete</t>
+  </si>
+  <si>
+    <t>getmoduledetailangular</t>
+  </si>
+  <si>
+    <t>trả về object module theo moduleid</t>
+  </si>
+  <si>
+    <t>actionmoduledetailangular</t>
+  </si>
+  <si>
+    <t>thêm,sửa bản ghi module</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>map với trường _id của bảng user</t>
+  </si>
+  <si>
+    <t>groupid</t>
+  </si>
+  <si>
+    <t>map với trường _id của bảng group</t>
+  </si>
+  <si>
+    <t>usergroup</t>
+  </si>
+  <si>
+    <t>groupuserChanged</t>
+  </si>
+  <si>
+    <t>trả về danh sách user theo groupid</t>
+  </si>
+  <si>
+    <t>actionusergroupdetailangular</t>
+  </si>
+  <si>
+    <t>xóa,thêm nhiều bản ghi usergroup</t>
+  </si>
+  <si>
+    <t>moduleid</t>
+  </si>
+  <si>
+    <t>map với trường _id của bảng module</t>
+  </si>
+  <si>
+    <t>groupmodule</t>
+  </si>
+  <si>
+    <t>groupmoduleChanged</t>
+  </si>
+  <si>
+    <t>trả về danh sách module theo groupid</t>
+  </si>
+  <si>
+    <t>actiongroupmoduledetailangular</t>
+  </si>
+  <si>
+    <t>xóa,thêm nhiều bản ghi groupmodule</t>
+  </si>
+  <si>
+    <t>groupname</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>grouplistangular</t>
+  </si>
+  <si>
+    <t>trả về danh sách group</t>
+  </si>
+  <si>
+    <t>groupdelete</t>
+  </si>
+  <si>
+    <t>xóa group theo groupid</t>
+  </si>
+  <si>
+    <t>getgroupdetailangular</t>
+  </si>
+  <si>
+    <t>trả về object group theo groupid</t>
+  </si>
+  <si>
+    <t>actiongroupdetailangular</t>
+  </si>
+  <si>
+    <t>thêm,sửa bản ghi group</t>
+  </si>
+  <si>
+    <t>roleid</t>
+  </si>
+  <si>
+    <t>map với trường _id của bảng role</t>
+  </si>
+  <si>
+    <t>groupmodulerole</t>
+  </si>
+  <si>
+    <t>groupmoduleroleChanged</t>
+  </si>
+  <si>
+    <t>trả về danh sách groupmodulerole theo groupid</t>
+  </si>
+  <si>
+    <t>actiongroupmoduleroledetailangular</t>
+  </si>
+  <si>
+    <t>xóa,thêm nhiều bản ghi groupmodulerole</t>
+  </si>
+  <si>
+    <t>http://192.168.149.139:8080/scoreresult</t>
+  </si>
+  <si>
     <t>{  </t>
   </si>
   <si>
-    <t>   "moduleid":"hjkhkjdhkjshdkjhsd",</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>   "codein":</t>
-  </si>
-  <si>
-    <t>    "_id": "07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
-  </si>
-  <si>
-    <t>      [{  </t>
-  </si>
-  <si>
-    <t>    "moduleid": "hjkhkjdhkjshdkjhsd",</t>
-  </si>
-  <si>
-    <t>         "code":"AAA",</t>
-  </si>
-  <si>
-    <t>    "modulename": "",</t>
-  </si>
-  <si>
-    <t>         "status":"A",</t>
-  </si>
-  <si>
-    <t>    "codein": [</t>
-  </si>
-  <si>
-    <t>         "statusname":"Approve",</t>
-  </si>
-  <si>
-    <t>        {</t>
-  </si>
-  <si>
-    <t>         "scorefrom":"1.01",</t>
-  </si>
-  <si>
-    <t>            "scorefrom": 1.01,</t>
-  </si>
-  <si>
-    <t>         "scoreto":"1.20"</t>
-  </si>
-  <si>
-    <t>            "statusname": "Approve",</t>
-  </si>
-  <si>
-    <t>      },{  </t>
-  </si>
-  <si>
-    <t>            "code": "AAA",</t>
-  </si>
-  <si>
-    <t>         "code":"AA",</t>
-  </si>
-  <si>
-    <t>            "note": "",</t>
-  </si>
-  <si>
-    <t>            "status": "A",</t>
-  </si>
-  <si>
-    <t>            "scoreto": 1.2</t>
-  </si>
-  <si>
-    <t>         "scorefrom":"1.20",</t>
-  </si>
-  <si>
-    <t>        },</t>
-  </si>
-  <si>
-    <t>         "scoreto":"1.30"</t>
-  </si>
-  <si>
-    <t>      }]</t>
-  </si>
-  <si>
-    <t>            "scorefrom": 1.2,</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>            "code": "AA",</t>
-  </si>
-  <si>
-    <t>            "scoreto": 1.3</t>
-  </si>
-  <si>
-    <t>        }</t>
-  </si>
-  <si>
-    <t>    ]</t>
-  </si>
-  <si>
-    <t>Cachs2: Chỉ đẩy lên 1</t>
-  </si>
-  <si>
-    <t>   "moduleid":"h122222jshd22211kjh5555sd",</t>
-  </si>
-  <si>
-    <t>    "_id": "2a705e69-00a4-4121-bb99-f90db5d36d40",</t>
-  </si>
-  <si>
-    <t>      {  </t>
-  </si>
-  <si>
-    <t>    "moduleid": "h122222jshd22211kjh5555sd",</t>
+    <t>modelid":"4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+   "listresult":[  
+      {  
+         "factorid":"c6b3ef5b-6ec5-4e63-8712-ed80c5e0aa85",
+         "facopid":"A",
+         "factorname":"Approve",
+         "score":"3</t>
+  </si>
+  <si>
+    <t>Score": 0.1071,
+    "Rating": "Not existed</t>
+  </si>
+  <si>
+    <t>      },</t>
+  </si>
+  <si>
+    <t>     {  </t>
+  </si>
+  <si>
+    <t>factorid":"80d0d620-9c44-4bc0-941b-f49ee55dec9e",
+         "facopid":"A",
+         "factorname":"Approve",
+         "score":"3</t>
   </si>
   <si>
     <t>      }</t>
   </si>
   <si>
-    <t>http://10.15.171.35:8080/rating/update</t>
-  </si>
-  <si>
-    <t>   "_id":"07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
-  </si>
-  <si>
-    <t>Đẩy lên _id</t>
-  </si>
-  <si>
-    <t>    "SUCCESS": [</t>
-  </si>
-  <si>
-    <t>Code cần sử ví dụ là AAA</t>
-  </si>
-  <si>
-    <t>            "_id": "07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
-  </si>
-  <si>
-    <t>            "moduleid": "hjkhkjdhkjshdkjhsd",</t>
-  </si>
-  <si>
-    <t>         "scorefrom":"1.40",</t>
-  </si>
-  <si>
-    <t>            "modulename": "",</t>
-  </si>
-  <si>
-    <t>         "scoreto":"1.50"   </t>
-  </si>
-  <si>
-    <t>            "codein": [</t>
-  </si>
-  <si>
-    <t>                {</t>
-  </si>
-  <si>
-    <t>                    "scorefrom": 1.2,</t>
-  </si>
-  <si>
-    <t>                    "statusname": "Approve",</t>
-  </si>
-  <si>
-    <t>                    "code": "AA",</t>
-  </si>
-  <si>
-    <t>                    "note": "",</t>
-  </si>
-  <si>
-    <t>                    "status": "A",</t>
-  </si>
-  <si>
-    <t>                    "scoreto": 1.3</t>
-  </si>
-  <si>
-    <t>                },</t>
-  </si>
-  <si>
-    <t>                    "scorefrom": 1.4,</t>
-  </si>
-  <si>
-    <t>                    "code": "AAA",</t>
-  </si>
-  <si>
-    <t>                    "scoreto": 1.5</t>
-  </si>
-  <si>
-    <t>                }</t>
-  </si>
-  <si>
-    <t>            ]</t>
-  </si>
-  <si>
-    <t>Trường hợp thêm 1 code chưa có thì cũng tương tự</t>
-  </si>
-  <si>
-    <t>         "code":"BBB",</t>
-  </si>
-  <si>
-    <t>         "status":"B",</t>
-  </si>
-  <si>
-    <t>                    "code": "BBB",</t>
-  </si>
-  <si>
-    <t>                    "status": "B",</t>
-  </si>
-  <si>
-    <t>http://10.15.171.35:8080/rating/delete</t>
-  </si>
-  <si>
-    <t>    </t>
-  </si>
-  <si>
-    <t>         "code":"AAA"</t>
-  </si>
-  <si>
-    <t>        </t>
-  </si>
-  <si>
-    <t>     </t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>rolename</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>controlid</t>
-  </si>
-  <si>
-    <t>tên control html map với giao diện</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>trạng thái : 0: deactive,1: active</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>rolelistangular</t>
-  </si>
-  <si>
-    <t>trả về danh sách role</t>
-  </si>
-  <si>
-    <t>roledelete</t>
-  </si>
-  <si>
-    <t>xóa role theo roleid</t>
-  </si>
-  <si>
-    <t>getroledetailangular</t>
-  </si>
-  <si>
-    <t>trả về object role theoroleid</t>
-  </si>
-  <si>
-    <t>actionroledetailangular</t>
-  </si>
-  <si>
-    <t>thêm,sửa bản ghi role</t>
-  </si>
-  <si>
-    <t>Date add</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>đường dẫn module</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>id module cha</t>
-  </si>
-  <si>
-    <t>tên  module cha</t>
-  </si>
-  <si>
-    <t>DisplayForGuess</t>
-  </si>
-  <si>
-    <t>cho phép hiển thị cho guess: 0: false,1: true</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>Giá trị Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Giá trị Max</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>modulelistangular</t>
-  </si>
-  <si>
-    <t>trả về danh sách module</t>
-  </si>
-  <si>
-    <t>moduledelete</t>
-  </si>
-  <si>
-    <t>getmoduledetailangular</t>
-  </si>
-  <si>
-    <t>trả về object module theo moduleid</t>
-  </si>
-  <si>
-    <t>actionmoduledetailangular</t>
-  </si>
-  <si>
-    <t>thêm,sửa bản ghi module</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>email </t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>map với trường _id của bảng user</t>
-  </si>
-  <si>
-    <t>groupid</t>
-  </si>
-  <si>
-    <t>map với trường _id của bảng group</t>
-  </si>
-  <si>
-    <t>usergroup</t>
-  </si>
-  <si>
-    <t>groupuserChanged</t>
-  </si>
-  <si>
-    <t>trả về danh sách user theo groupid</t>
-  </si>
-  <si>
-    <t>actionusergroupdetailangular</t>
-  </si>
-  <si>
-    <t>xóa,thêm nhiều bản ghi usergroup</t>
-  </si>
-  <si>
-    <t>moduleid</t>
-  </si>
-  <si>
-    <t>map với trường _id của bảng module</t>
-  </si>
-  <si>
-    <t>groupmodule</t>
-  </si>
-  <si>
-    <t>groupmoduleChanged</t>
-  </si>
-  <si>
-    <t>trả về danh sách module theo groupid</t>
-  </si>
-  <si>
-    <t>actiongroupmoduledetailangular</t>
-  </si>
-  <si>
-    <t>xóa,thêm nhiều bản ghi groupmodule</t>
-  </si>
-  <si>
-    <t>groupname</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>grouplistangular</t>
-  </si>
-  <si>
-    <t>trả về danh sách group</t>
-  </si>
-  <si>
-    <t>groupdelete</t>
-  </si>
-  <si>
-    <t>xóa group theo groupid</t>
-  </si>
-  <si>
-    <t>getgroupdetailangular</t>
-  </si>
-  <si>
-    <t>trả về object group theo groupid</t>
-  </si>
-  <si>
-    <t>actiongroupdetailangular</t>
-  </si>
-  <si>
-    <t>thêm,sửa bản ghi group</t>
-  </si>
-  <si>
-    <t>roleid</t>
-  </si>
-  <si>
-    <t>map với trường _id của bảng role</t>
-  </si>
-  <si>
-    <t>groupmodulerole</t>
-  </si>
-  <si>
-    <t>groupmoduleroleChanged</t>
-  </si>
-  <si>
-    <t>trả về danh sách groupmodulerole theo groupid</t>
-  </si>
-  <si>
-    <t>actiongroupmoduleroledetailangular</t>
-  </si>
-  <si>
-    <t>xóa,thêm nhiều bản ghi groupmodulerole</t>
+    <t>   ]</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1937,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2018,6 +1984,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2500,10 +2470,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -2519,7 +2489,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -2527,7 +2497,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -2535,13 +2505,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,46 +2530,46 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2634,10 +2604,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -2653,35 +2623,35 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,24 +2670,24 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2731,6 +2701,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="82.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2738,7 +2789,7 @@
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -20437,34 +20488,48 @@
         <v>102</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+    </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="0"/>
+      <c r="C30" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="D30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="9"/>
+      <c r="A31" s="0"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="9"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="10" t="s">
         <v>108</v>
       </c>
@@ -20877,7 +20942,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -20885,829 +20950,820 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>162</v>
+      <c r="A64" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="0" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="0" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="0" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="0" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="0" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="0" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="0" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="0" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="0" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="0" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="0" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="0" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="0" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="0" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="0" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="0" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="0" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
-        <v>191</v>
+      <c r="A135" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="E138" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="E140" s="0" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="E141" s="0" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="0" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="0" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E150" s="0" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E151" s="0" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E152" s="0" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E153" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E154" s="0" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="0" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="0" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="0" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E158" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="0" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="0" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E163" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -21747,10 +21803,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -21766,7 +21822,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -21774,7 +21830,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -21782,24 +21838,24 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21818,46 +21874,46 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -21893,16 +21949,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21915,7 +21971,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -21923,18 +21979,18 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -21948,7 +22004,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21959,7 +22015,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21972,13 +22028,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21989,34 +22045,34 @@
         <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="14" t="n">
+      <c r="A11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <v>42198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="14" t="n">
+      <c r="A12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="15" t="n">
         <v>42198</v>
       </c>
     </row>
@@ -22036,21 +22092,21 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>88</v>
@@ -22058,24 +22114,24 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -22110,10 +22166,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -22129,7 +22185,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -22137,7 +22193,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -22145,7 +22201,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -22153,7 +22209,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -22161,7 +22217,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -22169,13 +22225,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22224,10 +22280,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -22243,24 +22299,24 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22279,24 +22335,24 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -22331,10 +22387,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>29</v>
@@ -22350,24 +22406,24 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22386,24 +22442,24 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="9" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>weigth</t>
-  </si>
-  <si>
     <t>modulelistangular</t>
   </si>
   <si>
@@ -707,9 +704,6 @@
     <t>List(FactorOptionName : String, Description : String, Score : Double, Fatal : String, Status : String)</t>
   </si>
   <si>
-    <t>List(FactorId : String, Weigth : Double)</t>
-  </si>
-  <si>
     <t>get all factor</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
   </si>
   <si>
     <t>factor/insert</t>
-  </si>
-  <si>
-    <t>{"ModelId":"...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weigth":"...", "Ordinal":"...", "Status":"...","Note":"..."}</t>
   </si>
   <si>
     <t>insert factorOption</t>
@@ -907,873 +898,17 @@
   </si>
   <si>
     <t>{
-    "FactorsList": [
-        {
-            "FactorOption": [],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Maturity &amp; Reliability",
-            "Description": "",
-            "_id": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "Ordinal": 1,
-            "PathFactor": [],
-            "Parentid": "",
-            "ParentName": "",
-            "Status": "status",
-            "Weigth": 17
-        },
-        {
-            "FactorOption": [],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Financial Capability",
-            "Description": "",
-            "_id": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "Ordinal": 2,
-            "PathFactor": [],
-            "Parentid": "",
-            "ParentName": "",
-            "Status": "1",
-            "Weigth": 33
-        },
-        {
-            "FactorOption": [],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Debt Service Cover",
-            "Description": "",
-            "_id": "34a3eb8b-8e1b-46df-98a4-42898340fe5c",
-            "Ordinal": 4,
-            "PathFactor": [
-                {
-                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-                    "Weigth": 33
-                }
-            ],
-            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "ParentName": "Ratio of Fixed to Variable Income",
-            "Status": "1",
-            "Weigth": 20
-        },
-        {
-            "FactorOption": [],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Loan Purpose",
-            "Description": "",
-            "_id": "19355e69-0c05-41cf-8932-d1579f7e95f2",
-            "Ordinal": 3,
-            "PathFactor": [],
-            "Parentid": "",
-            "ParentName": "",
-            "Status": "1",
-            "Weigth": 8
-        },
-        {
-            "FactorOption": [],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Credit History",
-            "Description": "",
-            "_id": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-            "Ordinal": 4,
-            "PathFactor": [],
-            "Parentid": "",
-            "ParentName": "",
-            "Status": "1",
-            "Weigth": 42
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "31 to 40 years",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "21 to 30 years",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "41 to 50 years",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "over 50",
-                    "Score": 2,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Current Age",
-            "Description": "",
-            "_id": "c6b3ef5b-6ec5-4e63-8712-ed80c5e0aa85",
-            "Ordinal": 1,
-            "PathFactor": [
-                {
-                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "ParentName": "Maturity &amp; Reliability",
-            "Status": "status",
-            "Weigth": 15
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Grade School",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "High School",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "College Degree",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "MBA or Post Graduate",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Doctorate Degree",
-                    "Score": 1,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Level of Education",
-            "Description": "",
-            "_id": "80d0d620-9c44-4bc0-941b-f49ee55dec9e",
-            "Ordinal": 2,
-            "PathFactor": [
-                {
-                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "ParentName": "Maturity &amp; Reliability",
-            "Status": "status",
-            "Weigth": 20
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "None",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "1 to 3 dependents",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "4 to 6 dependents",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "7 to 10 dependents",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "More than 10 dependents",
-                    "Score": 4,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "No. of Dependents",
-            "Description": "",
-            "_id": "aa90fa41-df43-4475-a60a-3275708eeb52",
-            "Ordinal": 4,
-            "PathFactor": [
-                {
-                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "ParentName": "Maturity &amp; Reliability",
-            "Status": "status",
-            "Weigth": 15
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Not cooperative",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Information not reliable",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Generally cooperative &amp; information reliable",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Fully cooperative &amp; information reliable",
-                    "Score": 1,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Cooperation in Providing Information",
-            "Description": "",
-            "_id": "ed915f54-93a5-4c30-a0c4-76f17186b77d",
-            "Ordinal": 5,
-            "PathFactor": [
-                {
-                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "ParentName": "Maturity &amp; Reliability",
-            "Status": "status",
-            "Weigth": 15
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Value declared at least 5 times loan amount",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Value declared greater than loan amount but withiin 5 times",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Value declared less than loan amount",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "No other properties declared",
-                    "Score": 5,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Ownership of Other Unencumbered Properties",
-            "Description": "",
-            "_id": "0ab79610-29fe-43fd-913a-f9c0cfc67988",
-            "Ordinal": 6,
-            "PathFactor": [
-                {
-                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
-            "ParentName": "Maturity &amp; Reliability",
-            "Status": "status",
-            "Weigth": 20
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Less than 1 year",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "2 to 5 years",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "6 to 10 years",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "11 to 15 years",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "16 to 25 years",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Over 25 years",
-                    "Score": 1,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Total Years in Line of Business / Profession",
-            "Description": "",
-            "_id": "b44c2bb7-f3dc-4330-9d93-d38e8c0d4c35",
-            "Ordinal": 1,
-            "PathFactor": [
-                {
-                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-                    "Weigth": 33
-                }
-            ],
-            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "ParentName": "Financial Capability",
-            "Status": "1",
-            "Weigth": 25
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Less than 1 year",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "2 to 4 years",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "5 to 6 years",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "7 to 10 years",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "11 to 15 years",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Over 15 years",
-                    "Score": 1,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "No. of Years in Current Employment / Business",
-            "Description": "",
-            "_id": "9eca2500-adf7-4b06-ad00-7011e3297e87",
-            "Ordinal": 2,
-            "PathFactor": [
-                {
-                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-                    "Weigth": 33
-                }
-            ],
-            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "ParentName": "Financial Capability",
-            "Status": "1",
-            "Weigth": 15
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Sole Proprietorship or Partnership (less than 10 people)",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Small Company (10 to 50 people)",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Middle Market (Over 50 people)",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Government Agency",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Large Corporation",
-                    "Score": 1,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Type of Company (Current Business / Employer)",
-            "Description": "",
-            "_id": "0f051169-f704-4ca9-8786-8d632762fda4",
-            "Ordinal": 3,
-            "PathFactor": [
-                {
-                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-                    "Weigth": 33
-                }
-            ],
-            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "ParentName": "Financial Capability",
-            "Status": "1",
-            "Weigth": 10
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Excellent (over 300% debt service coverage)",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Strong (251 - 300% debt service coverage)",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Acceptable (151 - 250% debt service coverage)",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Fair (101 - 150% debt service coverage)",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Weak (up to 100% debt service coverage)",
-                    "Score": 5,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Debt Service Cover",
-            "Description": "",
-            "_id": "7248093f-11ee-4fda-8aa0-e1459fb1d826",
-            "Ordinal": 4,
-            "PathFactor": [
-                {
-                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-                    "Weigth": 33
-                }
-            ],
-            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
-            "ParentName": "Financial Capability",
-            "Status": "1",
-            "Weigth": 30
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Purchase of home for primary residence",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Renovate owner occupied home",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Purchase of additional home for owner occupation",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Refinance existing loan",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Purchase of commercial property (e.g. house for rental)",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Renovate commercial property",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Investment (e.g. share purchase, property investment)",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Other (e.g. Car Loan)",
-                    "Score": 5,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Loan Purpose",
-            "Description": "",
-            "_id": "877334f8-1bd5-4304-a2d6-577186d357dc",
-            "Ordinal": 3,
-            "PathFactor": [
-                {
-                    "FactorPathId": "19355e69-0c05-41cf-8932-d1579f7e95f2",
-                    "Weigth": 8
-                }
-            ],
-            "Parentid": "19355e69-0c05-41cf-8932-d1579f7e95f2",
-            "ParentName": "Loan Purpose",
-            "Status": "1",
-            "Weigth": 100
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "No payment delays in past 5 years",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "No payment delays in past 12 months",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "New customer",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "One payment delay in past 12 months",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Multiple payment delays in past twelve months",
-                    "Score": 5,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Severe payment delays observed",
-                    "Score": 0,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Payment History",
-            "Description": "",
-            "_id": "a0336499-61e8-4d0e-b8bb-069d2c6f3d66",
-            "Ordinal": 1,
-            "PathFactor": [
-                {
-                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-                    "Weigth": 42
-                }
-            ],
-            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-            "ParentName": "Credit History",
-            "Status": "1",
-            "Weigth": 25
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Enjoys credit facilities with more than 2 other banks with satisfactory credit history",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Satisfactory credit history with at least one other bank",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "No credit history",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Unfavorable credit history at any bank / creditor",
-                    "Score": 0,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Dealings with Other Banks",
-            "Description": "",
-            "_id": "9fd2e7db-b36d-49e9-9b85-b894d98318b3",
-            "Ordinal": 2,
-            "PathFactor": [
-                {
-                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-                    "Weigth": 42
-                }
-            ],
-            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-            "ParentName": "Credit History",
-            "Status": "1",
-            "Weigth": 25
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Over 5 years of favorable credit card handling",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "3 to 5 years of favorable credit card handling",
-                    "Score": 2,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "1 to 2 years of favorable  credit card handling",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Less than 1 year of favorable credit card handling",
-                    "Score": 5,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Years of Satisfactory Credit Card Handling",
-            "Description": "",
-            "_id": "285125c3-cf7f-40ae-89f2-f7df1e309433",
-            "Ordinal": 3,
-            "PathFactor": [
-                {
-                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-                    "Weigth": 42
-                }
-            ],
-            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-            "ParentName": "Credit History",
-            "Status": "1",
-            "Weigth": 25
-        },
-        {
-            "FactorOption": [
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Aggregate card limit more than 10 times monthly loan repayments",
-                    "Score": 1,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Aggregate card limit 4 - 6 times monthly loan repayments",
-                    "Score": 3,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Aggregate card limit 1 - 3 times monthly loan repayments",
-                    "Score": 4,
-                    "Status": "1"
-                },
-                {
-                    "Fatal": "",
-                    "Description": "",
-                    "FactorOptionName": "Aggregate card limit less than monthly loan repayments",
-                    "Score": 5,
-                    "Status": "1"
-                }
-            ],
-            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
-            "Note": "note",
-            "FactorName": "Aggregate Card Limit / Amortization",
-            "Description": "",
-            "_id": "efa83998-a003-4849-a71c-baeed95db695",
-            "Ordinal": 4,
-            "PathFactor": [
-                {
-                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-                    "Weigth": 42
-                }
-            ],
-            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
-            "ParentName": "Credit History",
-            "Status": "1",
-            "Weigth": 25
-        },
-        {
-            "FactorOption": [],
-            "ModelId": "daef378a-1237-4d61-8c73-0af1262cc02c",
-            "Note": "note",
-            "FactorName": "Factor test lv 2",
-            "Description": "",
-            "_id": "6e4869e3-09d7-4d27-8ffc-6f0c4b646985",
-            "Ordinal": 1,
-            "PathFactor": [
-                {
-                    "FactorPathId": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
-                    "Weigth": 17
-                }
-            ],
-            "Parentid": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
-            "ParentName": "Factor test lv 1",
-            "Status": "status",
-            "Weigth": 17
-        }
-    ]
+    "SUCCESS": {
+        "min": "0.6985",
+        "max": "4.4375"
+    }
 }</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>List(FactorId : String, Weight : Double)</t>
   </si>
   <si>
     <t>{
@@ -1790,10 +925,883 @@
             "Parentid": "",
             "ParentName": "",
             "Status": "status",
-            "Weigth": 17
+            "Weight": 17
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Financial Capability",
+            "Description": "",
+            "_id": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "Ordinal": 2,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weight": 33
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Debt Service Cover",
+            "Description": "",
+            "_id": "34a3eb8b-8e1b-46df-98a4-42898340fe5c",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weight": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Ratio of Fixed to Variable Income",
+            "Status": "1",
+            "Weight": 20
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Loan Purpose",
+            "Description": "",
+            "_id": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+            "Ordinal": 3,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weight": 8
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Credit History",
+            "Description": "",
+            "_id": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "Ordinal": 4,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "1",
+            "Weight": 42
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "31 to 40 years",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "21 to 30 years",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "41 to 50 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "over 50",
+                    "Score": 2,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Current Age",
+            "Description": "",
+            "_id": "c6b3ef5b-6ec5-4e63-8712-ed80c5e0aa85",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weight": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Grade School",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "High School",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "College Degree",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "MBA or Post Graduate",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Doctorate Degree",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Level of Education",
+            "Description": "",
+            "_id": "80d0d620-9c44-4bc0-941b-f49ee55dec9e",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weight": 20
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "None",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "1 to 3 dependents",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "4 to 6 dependents",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "7 to 10 dependents",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "More than 10 dependents",
+                    "Score": 4,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "No. of Dependents",
+            "Description": "",
+            "_id": "aa90fa41-df43-4475-a60a-3275708eeb52",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weight": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Not cooperative",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Information not reliable",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Generally cooperative &amp; information reliable",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Fully cooperative &amp; information reliable",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Cooperation in Providing Information",
+            "Description": "",
+            "_id": "ed915f54-93a5-4c30-a0c4-76f17186b77d",
+            "Ordinal": 5,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weight": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared at least 5 times loan amount",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared greater than loan amount but withiin 5 times",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Value declared less than loan amount",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No other properties declared",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Ownership of Other Unencumbered Properties",
+            "Description": "",
+            "_id": "0ab79610-29fe-43fd-913a-f9c0cfc67988",
+            "Ordinal": 6,
+            "PathFactor": [
+                {
+                    "FactorPathId": "6ca463f2-e55b-4c08-9150-b09416226e58",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "ParentName": "Maturity &amp; Reliability",
+            "Status": "status",
+            "Weight": 20
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "2 to 5 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "6 to 10 years",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "11 to 15 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "16 to 25 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 25 years",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Total Years in Line of Business / Profession",
+            "Description": "",
+            "_id": "b44c2bb7-f3dc-4330-9d93-d38e8c0d4c35",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weight": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weight": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "2 to 4 years",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "5 to 6 years",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "7 to 10 years",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "11 to 15 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 15 years",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "No. of Years in Current Employment / Business",
+            "Description": "",
+            "_id": "9eca2500-adf7-4b06-ad00-7011e3297e87",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weight": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weight": 15
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Sole Proprietorship or Partnership (less than 10 people)",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Small Company (10 to 50 people)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Middle Market (Over 50 people)",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Government Agency",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Large Corporation",
+                    "Score": 1,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Type of Company (Current Business / Employer)",
+            "Description": "",
+            "_id": "0f051169-f704-4ca9-8786-8d632762fda4",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weight": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weight": 10
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Excellent (over 300% debt service coverage)",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Strong (251 - 300% debt service coverage)",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Acceptable (151 - 250% debt service coverage)",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Fair (101 - 150% debt service coverage)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Weak (up to 100% debt service coverage)",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Debt Service Cover",
+            "Description": "",
+            "_id": "7248093f-11ee-4fda-8aa0-e1459fb1d826",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+                    "Weight": 33
+                }
+            ],
+            "Parentid": "c0dfc80f-bed9-47e4-9ce3-64034c3ac52f",
+            "ParentName": "Financial Capability",
+            "Status": "1",
+            "Weight": 30
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of home for primary residence",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Renovate owner occupied home",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of additional home for owner occupation",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Refinance existing loan",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Purchase of commercial property (e.g. house for rental)",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Renovate commercial property",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Investment (e.g. share purchase, property investment)",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Other (e.g. Car Loan)",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Loan Purpose",
+            "Description": "",
+            "_id": "877334f8-1bd5-4304-a2d6-577186d357dc",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+                    "Weight": 8
+                }
+            ],
+            "Parentid": "19355e69-0c05-41cf-8932-d1579f7e95f2",
+            "ParentName": "Loan Purpose",
+            "Status": "1",
+            "Weight": 100
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No payment delays in past 5 years",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No payment delays in past 12 months",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "New customer",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "One payment delay in past 12 months",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Multiple payment delays in past twelve months",
+                    "Score": 5,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Severe payment delays observed",
+                    "Score": 0,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Payment History",
+            "Description": "",
+            "_id": "a0336499-61e8-4d0e-b8bb-069d2c6f3d66",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weight": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weight": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Enjoys credit facilities with more than 2 other banks with satisfactory credit history",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Satisfactory credit history with at least one other bank",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "No credit history",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Unfavorable credit history at any bank / creditor",
+                    "Score": 0,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Dealings with Other Banks",
+            "Description": "",
+            "_id": "9fd2e7db-b36d-49e9-9b85-b894d98318b3",
+            "Ordinal": 2,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weight": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weight": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Over 5 years of favorable credit card handling",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "3 to 5 years of favorable credit card handling",
+                    "Score": 2,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "1 to 2 years of favorable  credit card handling",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Less than 1 year of favorable credit card handling",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Years of Satisfactory Credit Card Handling",
+            "Description": "",
+            "_id": "285125c3-cf7f-40ae-89f2-f7df1e309433",
+            "Ordinal": 3,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weight": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weight": 25
+        },
+        {
+            "FactorOption": [
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit more than 10 times monthly loan repayments",
+                    "Score": 1,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit 4 - 6 times monthly loan repayments",
+                    "Score": 3,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit 1 - 3 times monthly loan repayments",
+                    "Score": 4,
+                    "Status": "1"
+                },
+                {
+                    "Fatal": "",
+                    "Description": "",
+                    "FactorOptionName": "Aggregate card limit less than monthly loan repayments",
+                    "Score": 5,
+                    "Status": "1"
+                }
+            ],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Aggregate Card Limit / Amortization",
+            "Description": "",
+            "_id": "efa83998-a003-4849-a71c-baeed95db695",
+            "Ordinal": 4,
+            "PathFactor": [
+                {
+                    "FactorPathId": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+                    "Weight": 42
+                }
+            ],
+            "Parentid": "85e8c668-64ff-4d1b-9143-0f5dee6c9398",
+            "ParentName": "Credit History",
+            "Status": "1",
+            "Weight": 25
+        },
+        {
+            "FactorOption": [],
+            "ModelId": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "Note": "note",
+            "FactorName": "Factor test lv 2",
+            "Description": "",
+            "_id": "6e4869e3-09d7-4d27-8ffc-6f0c4b646985",
+            "Ordinal": 1,
+            "PathFactor": [
+                {
+                    "FactorPathId": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+                    "Weight": 17
+                }
+            ],
+            "Parentid": "de4d649e-4549-4784-a310-7d5e7ef2dbf2",
+            "ParentName": "Factor test lv 1",
+            "Status": "status",
+            "Weight": 17
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t>{
+    "FactorsList": [
+        {
+            "FactorOption": [],
+            "ModelId": "4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+            "Note": "note",
+            "FactorName": "Maturity &amp; Reliability",
+            "Description": "",
+            "_id": "6ca463f2-e55b-4c08-9150-b09416226e58",
+            "Ordinal": 1,
+            "PathFactor": [],
+            "Parentid": "",
+            "ParentName": "",
+            "Status": "status",
+            "Weight": 17
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{"ModelId":"...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weight":"...", "Ordinal":"...", "Status":"...","Note":"..."}</t>
   </si>
   <si>
     <t>{
@@ -1810,17 +1818,9 @@
             "Parentid": "",
             "ParentName": "",
             "Status": "status",
-            "Weigth": 17
+            "Weight": 17
         }
     ]
-}</t>
-  </si>
-  <si>
-    <t>{
-    "SUCCESS": {
-        "min": "0.6985",
-        "max": "4.4375"
-    }
 }</t>
   </si>
 </sst>
@@ -2251,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2265,16 +2265,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -2295,24 +2295,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="10">
         <v>42198</v>
@@ -2326,7 +2326,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="10">
         <v>42198</v>
@@ -2334,10 +2334,10 @@
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10">
         <v>42198</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="10">
         <v>42198</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D9" s="10">
         <v>42198</v>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D10" s="10">
         <v>42198</v>
@@ -2384,13 +2384,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D11" s="10">
         <v>42198</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="10">
         <v>42198</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="10">
         <v>42198</v>
@@ -2440,170 +2440,170 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2689,46 +2689,46 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2819,24 +2819,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2848,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2863,16 +2863,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -2885,13 +2885,13 @@
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="10">
         <v>42198</v>
@@ -2899,51 +2899,51 @@
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -2951,33 +2951,33 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="10">
         <v>42198</v>
@@ -2991,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="10">
         <v>42198</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D13" s="10">
         <v>42198</v>
@@ -3013,13 +3013,13 @@
     </row>
     <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="10">
         <v>42198</v>
@@ -3027,13 +3027,13 @@
     </row>
     <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D15" s="10">
         <v>42198</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D16" s="10">
         <v>42198</v>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10">
         <v>42198</v>
@@ -3127,24 +3127,24 @@
     </row>
     <row r="24" spans="1:4" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="16" t="s">
@@ -3153,13 +3153,13 @@
     </row>
     <row r="26" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>267</v>
@@ -3167,30 +3167,30 @@
     </row>
     <row r="27" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3218,16 +3218,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3240,24 +3240,24 @@
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="10">
         <v>42198</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="10">
         <v>42198</v>
@@ -3317,7 +3317,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="10">
         <v>42198</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D11" s="10">
         <v>42198</v>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="10">
         <v>42198</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D13" s="10">
         <v>42198</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D14" s="10">
         <v>42198</v>
@@ -3381,13 +3381,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="10">
         <v>42198</v>
@@ -3420,16 +3420,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -3444,31 +3444,31 @@
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
@@ -3478,20 +3478,20 @@
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3504,7 +3504,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="10">
         <v>42198</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D9" s="10">
         <v>42198</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D10" s="10">
         <v>42198</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D11" s="10">
         <v>42198</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="10">
         <v>42198</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="10">
         <v>42198</v>
@@ -3582,836 +3582,836 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="6:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E143" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4513,46 +4513,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9">
         <v>42198</v>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="9">
         <v>42198</v>
@@ -4724,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -4735,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -4944,24 +4944,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5041,24 +5041,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="6180" tabRatio="707" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9460" windowHeight="6181" tabRatio="707" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="226">
   <si>
     <t>function</t>
   </si>
@@ -474,13 +474,241 @@
   </si>
   <si>
     <t>path factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "moduleid":"hjkhkjdhkjshdkjhsd",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "codein":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      [{  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "code":"AAA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "status":"A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "statusname":"Approve",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scorefrom":"1.01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scoreto":"1.20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      },{  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "code":"AA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scorefrom":"1.20",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scoreto":"1.30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>http://10.15.171.35:8080/rating/insert</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "_id": "07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "moduleid": "hjkhkjdhkjshdkjhsd",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "modulename": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "codein": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "scorefrom": 1.01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "statusname": "Approve",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "code": "AAA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "note": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "status": "A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "scoreto": 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "scorefrom": 1.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "code": "AA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "scoreto": 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "moduleid":"h122222jshd22211kjh5555sd",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "_id": "2a705e69-00a4-4121-bb99-f90db5d36d40",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "moduleid": "h122222jshd22211kjh5555sd",</t>
+  </si>
+  <si>
+    <t>Chỉ sử dụng khi ModuleID chưa đc khởi tạo</t>
+  </si>
+  <si>
+    <t>Cách 1: thêm nhiều code dạng Array</t>
+  </si>
+  <si>
+    <t>Cachs2: Chỉ đẩy lên 1</t>
+  </si>
+  <si>
+    <t>http://10.15.171.35:8080/rating/update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "_id":"07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scorefrom":"1.40",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "scoreto":"1.50"   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SUCCESS": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "_id": "07a5fada-7e3b-4e99-b0c3-58a2f42e725b",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "moduleid": "hjkhkjdhkjshdkjhsd",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "modulename": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "codein": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "scorefrom": 1.2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "statusname": "Approve",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "code": "AA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "note": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "status": "A",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "scoreto": 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "scorefrom": 1.4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "code": "AAA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "scoreto": 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ]</t>
+  </si>
+  <si>
+    <t>Đẩy lên _id</t>
+  </si>
+  <si>
+    <t>Code cần sử ví dụ là AAA</t>
+  </si>
+  <si>
+    <t>Trường hợp thêm 1 code chưa có thì cũng tương tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "code":"BBB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "status":"B",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "code": "BBB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "status": "B",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         "code":"AAA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>http://10.15.171.35:8080/rating/delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +732,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,10 +780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,8 +802,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,7 +899,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,15 +1114,15 @@
       <selection activeCell="A9" sqref="A9:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.296875" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -897,7 +1136,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -905,7 +1144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -913,7 +1152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -924,7 +1163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>114</v>
       </c>
@@ -938,7 +1177,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -952,7 +1191,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -963,7 +1202,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>116</v>
       </c>
@@ -974,7 +1213,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
@@ -988,7 +1227,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -1002,7 +1241,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
@@ -1016,7 +1255,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>131</v>
       </c>
@@ -1030,7 +1269,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>132</v>
       </c>
@@ -1044,7 +1283,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1069,7 +1308,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1080,7 +1319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1091,7 +1330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1116,14 +1355,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1134,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1194,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1205,7 +1444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1216,7 +1455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1240,14 +1479,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1266,7 +1505,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1288,7 +1527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1324,7 +1563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1344,20 +1583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1371,7 +1610,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>137</v>
       </c>
@@ -1393,7 +1632,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
@@ -1404,7 +1643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -1415,7 +1654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
@@ -1426,7 +1665,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>113</v>
       </c>
@@ -1437,7 +1676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1445,7 +1684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>143</v>
       </c>
@@ -1457,7 +1696,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>114</v>
       </c>
@@ -1471,7 +1710,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1724,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>102</v>
       </c>
@@ -1499,7 +1738,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>126</v>
       </c>
@@ -1513,7 +1752,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>129</v>
       </c>
@@ -1527,7 +1766,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>131</v>
       </c>
@@ -1541,7 +1780,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>132</v>
       </c>
@@ -1555,7 +1794,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>148</v>
       </c>
@@ -1567,7 +1806,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1639,16 +1878,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1662,7 +1901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -1681,7 +1920,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>144</v>
       </c>
@@ -1695,7 +1934,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -1703,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -1711,7 +1950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -1719,7 +1958,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1727,7 +1966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -1741,7 +1980,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
@@ -1755,7 +1994,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>102</v>
       </c>
@@ -1769,7 +2008,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
@@ -1783,7 +2022,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>129</v>
       </c>
@@ -1797,7 +2036,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>131</v>
       </c>
@@ -1811,7 +2050,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>132</v>
       </c>
@@ -1836,21 +2075,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -1864,7 +2103,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -1874,7 +2113,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>137</v>
       </c>
@@ -1886,7 +2125,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>146</v>
       </c>
@@ -1898,7 +2137,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1908,7 +2147,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>140</v>
       </c>
@@ -1918,7 +2157,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>141</v>
       </c>
@@ -1928,7 +2167,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +2181,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
@@ -1956,7 +2195,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>126</v>
       </c>
@@ -1970,7 +2209,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
@@ -1984,7 +2223,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>131</v>
       </c>
@@ -1998,7 +2237,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>132</v>
       </c>
@@ -2012,8 +2251,848 @@
         <v>42198</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="F98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="F103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>193</v>
+      </c>
+      <c r="E137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>223</v>
+      </c>
+      <c r="E140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1"/>
+    <hyperlink ref="A64" r:id="rId2"/>
+    <hyperlink ref="A135" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2025,14 +3104,14 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2043,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2051,7 +3130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +3138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2067,7 +3146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2078,7 +3157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2089,7 +3168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -2103,7 +3182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2114,7 +3193,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2125,7 +3204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2136,7 +3215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2160,15 +3239,15 @@
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.296875" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +3261,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2190,7 +3269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2198,7 +3277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -2209,7 +3288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -2217,7 +3296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -2228,7 +3307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -2239,7 +3318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2247,7 +3326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2258,7 +3337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2269,7 +3348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +3362,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>106</v>
       </c>
@@ -2297,7 +3376,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +3390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +3401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2344,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2368,14 +3447,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2394,7 +3473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2402,7 +3481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2418,7 +3497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2426,7 +3505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +3513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2445,7 +3524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2472,14 +3551,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" customWidth="1"/>
+    <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2490,7 +3569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2498,7 +3577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2509,7 +3588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -2520,7 +3599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +3613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2545,7 +3624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2569,14 +3648,14 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2587,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2595,7 +3674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +3685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2617,7 +3696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2631,7 +3710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2642,7 +3721,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="274">
   <si>
     <t>Field</t>
   </si>
@@ -1929,6 +1929,27 @@
     }
 }</t>
   </si>
+  <si>
+    <t>get factor option</t>
+  </si>
+  <si>
+    <t>factoroption/getbyfactoroptionid</t>
+  </si>
+  <si>
+    <t>{"factorId":"30a17c98-060b-47a6-91b5-9b8a755b12f8", "factorOptionId": "4b97aa92-3a11-4ad1-b5a7-7a633735ddef"}</t>
+  </si>
+  <si>
+    <t>{
+    "FactorsOptionItem": {
+        "Fatal": "",
+        "Description": "",
+        "FactorOptionName": "hsdf",
+        "Score": 511,
+        "FactorOptionId": "4b97aa92-3a11-4ad1-b5a7-7a633735ddef",
+        "Status": ""
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -2014,10 +2035,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2042,6 +2059,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2427,17 +2448,17 @@
     <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2469,136 +2490,136 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>42198</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>42198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2628,7 +2649,7 @@
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
@@ -2646,127 +2667,127 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="345" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2838,17 +2859,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2878,7 +2899,7 @@
       <c r="A10" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>238</v>
       </c>
       <c r="C10" t="s">
@@ -2970,17 +2991,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3036,10 +3057,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3057,7 +3078,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3088,40 +3109,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK47"/>
+  <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="12"/>
-    <col min="2" max="2" width="87.85546875" style="12"/>
-    <col min="3" max="3" width="112.5703125" style="12"/>
-    <col min="4" max="4" width="74.5703125" style="12"/>
-    <col min="5" max="1025" width="9.140625" style="12"/>
+    <col min="1" max="1" width="20.7109375" style="10"/>
+    <col min="2" max="2" width="87.85546875" style="10"/>
+    <col min="3" max="3" width="112.5703125" style="10"/>
+    <col min="4" max="4" width="74.5703125" style="10"/>
+    <col min="5" max="1025" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2"/>
@@ -4147,28 +4168,28 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D4"/>
@@ -5194,13 +5215,13 @@
       <c r="AMJ4"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D5"/>
@@ -6226,13 +6247,13 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D6"/>
@@ -7258,13 +7279,13 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D7"/>
@@ -8290,10 +8311,10 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8"/>
@@ -9320,16 +9341,16 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -10352,10 +10373,10 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C10"/>
@@ -11381,31 +11402,31 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>42198</v>
       </c>
       <c r="E12"/>
@@ -12430,16 +12451,16 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>42198</v>
       </c>
       <c r="E13"/>
@@ -13464,16 +13485,16 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>42198</v>
       </c>
       <c r="E14"/>
@@ -14498,16 +14519,16 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>42198</v>
       </c>
       <c r="E15"/>
@@ -15532,16 +15553,16 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>42198</v>
       </c>
       <c r="E16"/>
@@ -16565,42 +16586,42 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>42198</v>
       </c>
     </row>
-    <row r="18" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D19"/>
@@ -17626,13 +17647,13 @@
       <c r="AMJ19"/>
     </row>
     <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D20"/>
@@ -18658,13 +18679,13 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D21"/>
@@ -19690,13 +19711,13 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D22"/>
@@ -20721,71 +20742,71 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="24" spans="1:1024" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:1024" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -20796,100 +20817,114 @@
     </row>
     <row r="30" spans="1:1024" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="15"/>
       <c r="D31"/>
     </row>
     <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="15"/>
       <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+      <c r="C33" s="15"/>
       <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
+      <c r="C34" s="15"/>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
+      <c r="C35" s="15"/>
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
+      <c r="C36" s="15"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="45" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -20919,17 +20954,17 @@
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20952,17 +20987,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>42198</v>
       </c>
     </row>
@@ -20998,101 +21033,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>42198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>42198</v>
       </c>
     </row>
@@ -21122,181 +21157,181 @@
     <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>42198</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -21582,7 +21617,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>156</v>
       </c>
     </row>
@@ -21598,7 +21633,7 @@
       <c r="A67" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F67" t="s">
@@ -21609,7 +21644,7 @@
       <c r="A68" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F68" t="s">
@@ -21752,7 +21787,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21956,7 +21991,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -22193,17 +22228,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -22233,7 +22268,7 @@
       <c r="A11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C11" t="s">
@@ -22274,17 +22309,17 @@
     <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -22376,44 +22411,44 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>42198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>42198</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -22443,7 +22478,7 @@
       <c r="A16" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C16" t="s">
@@ -22553,17 +22588,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -22630,17 +22665,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -22729,17 +22764,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="707" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="707"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="276">
   <si>
     <t>Field</t>
   </si>
@@ -1950,6 +1950,12 @@
     }
 }</t>
   </si>
+  <si>
+    <t>{"status":"..."}</t>
+  </si>
+  <si>
+    <t>modelinfo/getbymodelinfostatus</t>
+  </si>
 </sst>
 </file>
 
@@ -2433,16 +2439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.7109375"/>
-    <col min="2" max="2" width="27.7109375"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="112.5703125"/>
     <col min="4" max="4" width="64.140625"/>
     <col min="5" max="1025" width="8.5703125"/>
@@ -2789,6 +2795,20 @@
       </c>
       <c r="D29" s="9" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3111,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="277">
   <si>
     <t>Field</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>trạng thái : 0: deactive,1: active,publish</t>
   </si>
   <si>
     <t>MinScore</t>
@@ -1951,17 +1948,47 @@
 }</t>
   </si>
   <si>
-    <t>{"status":"..."}</t>
-  </si>
-  <si>
     <t>modelinfo/getbymodelinfostatus</t>
+  </si>
+  <si>
+    <t>trạng thái : draft, active : chỉ được sửa model ,publish : không được sửa xóa model factor factoroption</t>
+  </si>
+  <si>
+    <t>{
+    "SUCCESS": [
+        {
+            "name": "model3",
+            "description": "description3",
+            "min": 0,
+            "_id": "daef378a-1237-4d61-8c73-0af1262cc02c",
+            "max": 0,
+            "status": "active"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"status":"active"}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+"status" : có thể là 1 trong 3 giá trị sau : "draft", "active", "publish"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1998,6 +2025,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2039,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2069,6 +2102,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2441,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="D6" s="3">
         <v>42198</v>
@@ -2525,10 +2561,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>42198</v>
@@ -2536,10 +2572,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>42198</v>
@@ -2547,13 +2583,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>42198</v>
@@ -2561,13 +2597,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>42198</v>
@@ -2575,13 +2611,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>42198</v>
@@ -2589,13 +2625,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>42198</v>
@@ -2603,13 +2639,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>42198</v>
@@ -2617,60 +2653,60 @@
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -2678,142 +2714,142 @@
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2835,13 +2871,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,7 +2890,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2862,7 +2898,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2870,71 +2906,71 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
         <v>233</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>234</v>
-      </c>
-      <c r="C8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
         <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
         <v>240</v>
-      </c>
-      <c r="C11" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2961,13 +2997,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,71 +3016,71 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
         <v>244</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>245</v>
-      </c>
-      <c r="C8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3065,56 +3101,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -4190,13 +4226,13 @@
     </row>
     <row r="3" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3">
         <v>42198</v>
@@ -4204,13 +4240,13 @@
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -5236,13 +5272,13 @@
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -6268,13 +6304,13 @@
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -8332,7 +8368,7 @@
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -9362,13 +9398,13 @@
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9"/>
@@ -10394,10 +10430,10 @@
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -11444,7 +11480,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3">
         <v>42198</v>
@@ -12472,13 +12508,13 @@
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>42198</v>
@@ -13506,13 +13542,13 @@
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="3">
         <v>42198</v>
@@ -14540,13 +14576,13 @@
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="3">
         <v>42198</v>
@@ -15574,13 +15610,13 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>42198</v>
@@ -16608,13 +16644,13 @@
     </row>
     <row r="17" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
         <v>42198</v>
@@ -16622,27 +16658,27 @@
     </row>
     <row r="18" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -17668,13 +17704,13 @@
     </row>
     <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -18700,13 +18736,13 @@
     </row>
     <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -19732,13 +19768,13 @@
     </row>
     <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -20767,67 +20803,67 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
@@ -20838,7 +20874,7 @@
     <row r="30" spans="1:1024" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="C30" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30"/>
     </row>
@@ -20849,7 +20885,7 @@
     </row>
     <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32"/>
@@ -20873,7 +20909,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
       <c r="D37" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -20893,58 +20929,58 @@
     </row>
     <row r="45" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -20961,7 +20997,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20998,24 +21034,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3">
         <v>42198</v>
@@ -21039,7 +21075,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -21047,7 +21083,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -21075,7 +21111,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3">
         <v>42198</v>
@@ -21083,13 +21119,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>42198</v>
@@ -21097,13 +21133,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>42198</v>
@@ -21111,13 +21147,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="3">
         <v>42198</v>
@@ -21125,13 +21161,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="3">
         <v>42198</v>
@@ -21139,13 +21175,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>42198</v>
@@ -21203,31 +21239,31 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -21237,20 +21273,20 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -21263,7 +21299,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3">
         <v>42198</v>
@@ -21271,13 +21307,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>42198</v>
@@ -21285,13 +21321,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>42198</v>
@@ -21299,13 +21335,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>42198</v>
@@ -21313,13 +21349,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>42198</v>
@@ -21327,13 +21363,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>42198</v>
@@ -21341,827 +21377,827 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
         <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
         <v>126</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
         <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
         <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
         <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
         <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
         <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
         <v>143</v>
-      </c>
-      <c r="D31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
         <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
         <v>128</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
         <v>130</v>
-      </c>
-      <c r="E51" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
         <v>133</v>
-      </c>
-      <c r="E53" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
         <v>135</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" t="s">
         <v>158</v>
-      </c>
-      <c r="F67" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -22193,13 +22229,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22212,7 +22248,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22220,7 +22256,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -22228,82 +22264,82 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
         <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
         <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -22331,16 +22367,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22353,7 +22389,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22361,18 +22397,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -22380,29 +22416,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -22410,13 +22446,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -22427,18 +22463,18 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="D11" s="14">
         <v>42198</v>
@@ -22446,13 +22482,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="D12" s="14">
         <v>42198</v>
@@ -22460,60 +22496,60 @@
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
         <v>203</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
         <v>207</v>
-      </c>
-      <c r="C16" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
         <v>209</v>
-      </c>
-      <c r="C17" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -22540,13 +22576,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22559,7 +22595,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22567,7 +22603,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -22575,7 +22611,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -22583,7 +22619,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -22591,7 +22627,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -22599,27 +22635,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -22646,13 +22682,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22665,60 +22701,60 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
         <v>220</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
         <v>223</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -22745,13 +22781,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22764,60 +22800,60 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
         <v>230</v>
-      </c>
-      <c r="C8" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="707"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelInfo" sheetId="1" r:id="rId1"/>
@@ -1298,9 +1298,6 @@
     <t>factor/insert</t>
   </si>
   <si>
-    <t>{"ModelId":"...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weigth":"...", "Ordinal":"...", "Status":"...","Note":"..."}</t>
-  </si>
-  <si>
     <t>{
     "SUCCESS": [
         {
@@ -1812,9 +1809,6 @@
   </si>
   <si>
     <t>factor/update</t>
-  </si>
-  <si>
-    <t>{"id":...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weight":"...", "Ordinal":"...", "Status":"...","Note":"..."}</t>
   </si>
   <si>
     <t>{
@@ -1982,6 +1976,12 @@
       <t xml:space="preserve">
 "status" : có thể là 1 trong 3 giá trị sau : "draft", "active", "publish"</t>
     </r>
+  </si>
+  <si>
+    <t>{"ModelId":"...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weigth":"...", "Ordinal":"...", "Status":"...","Note":"...", "Description":"..."}</t>
+  </si>
+  <si>
+    <t>{"id":...", "Parentid":"...", "ParentName":"...", "Name":"...", "Weight":"...", "Ordinal":"...", "Status":"...","Note":"...", "Description":"..."}</t>
   </si>
 </sst>
 </file>
@@ -2098,13 +2098,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2477,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D6" s="3">
         <v>42198</v>
@@ -2838,13 +2838,13 @@
         <v>45</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2871,10 +2871,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2906,13 +2906,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2931,46 +2931,46 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
         <v>232</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>233</v>
-      </c>
-      <c r="C8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
         <v>237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
         <v>239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -3016,35 +3016,35 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3063,24 +3063,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
         <v>243</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>244</v>
-      </c>
-      <c r="C8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
         <v>246</v>
-      </c>
-      <c r="C9" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3101,56 +3101,56 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3167,15 +3167,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="10"/>
     <col min="2" max="2" width="87.85546875" style="10"/>
-    <col min="3" max="3" width="112.5703125" style="10"/>
+    <col min="3" max="3" width="130" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.5703125" style="10"/>
     <col min="5" max="1025" width="9.140625" style="10"/>
   </cols>
@@ -20846,24 +20846,24 @@
         <v>99</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1024" ht="270" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
@@ -20873,114 +20873,114 @@
     </row>
     <row r="30" spans="1:1024" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="C30" s="15" t="s">
-        <v>105</v>
+      <c r="C30" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="16"/>
       <c r="D31"/>
     </row>
     <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="16"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="16"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="16"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="16"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+      <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="15"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="15"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="15"/>
-      <c r="D37" s="10" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="16"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="16"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="16"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="16"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -21034,13 +21034,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -21051,7 +21051,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3">
         <v>42198</v>
@@ -21075,7 +21075,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -21245,25 +21245,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -21273,7 +21273,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -21377,827 +21377,827 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
         <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
         <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
         <v>127</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
         <v>129</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
         <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
         <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
         <v>136</v>
-      </c>
-      <c r="D27" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
         <v>138</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
         <v>145</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
         <v>127</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
         <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
         <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
         <v>134</v>
-      </c>
-      <c r="E54" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" t="s">
         <v>157</v>
-      </c>
-      <c r="F67" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -22229,10 +22229,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -22248,7 +22248,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -22264,24 +22264,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22300,46 +22300,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
         <v>179</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
         <v>182</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" t="s">
         <v>184</v>
-      </c>
-      <c r="C11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
         <v>186</v>
-      </c>
-      <c r="C12" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -22367,16 +22367,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22389,7 +22389,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22397,18 +22397,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -22422,7 +22422,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -22433,7 +22433,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -22446,13 +22446,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -22463,18 +22463,18 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D11" s="14">
         <v>42198</v>
@@ -22482,13 +22482,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="D12" s="14">
         <v>42198</v>
@@ -22510,21 +22510,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
         <v>202</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -22532,24 +22532,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
         <v>206</v>
-      </c>
-      <c r="C16" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
         <v>208</v>
-      </c>
-      <c r="C17" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -22576,10 +22576,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -22595,7 +22595,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -22603,7 +22603,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -22619,7 +22619,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -22627,7 +22627,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -22635,13 +22635,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22682,10 +22682,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -22701,24 +22701,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22737,24 +22737,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -22781,10 +22781,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -22800,24 +22800,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22836,24 +22836,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>227</v>
-      </c>
-      <c r="C7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
         <v>229</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scoring.xlsx
+++ b/Documents/Scoring.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="285">
   <si>
     <t>Field</t>
   </si>
@@ -1952,23 +1952,20 @@
     <t>http://192.168.149.139:8080/scoreresult</t>
   </si>
   <si>
-    <t>modelid":"4e5716dd-d7aa-4085-8895-50eb493f6bb5",
+    <t>{ modelid":"4e5716dd-d7aa-4085-8895-50eb493f6bb5",
    "listresult":[  
       {  
          "factorid":"c6b3ef5b-6ec5-4e63-8712-ed80c5e0aa85",
          "facopid":"A",
          "factorname":"Approve",
-         "score":"3</t>
-  </si>
-  <si>
-    <t>Score": 0.1071,
-    "Rating": "Not existed</t>
-  </si>
-  <si>
-    <t>factorid":"80d0d620-9c44-4bc0-941b-f49ee55dec9e",
+         "score":"3 }, { factorid":"80d0d620-9c44-4bc0-941b-f49ee55dec9e",
          "facopid":"A",
          "factorname":"Approve",
-         "score":"3</t>
+         "score":"3 } ] }</t>
+  </si>
+  <si>
+    <t>{ Score": 0.1071,
+    "Rating": "Not existed”,”Status”:”Not existed” }</t>
   </si>
   <si>
     <t>http://192.168.149.140:8080/validate/checkweightrate</t>
@@ -2160,7 +2157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,10 +2227,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2957,8 +2958,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2971,270 +2972,306 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>111</v>
-      </c>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>111</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="82.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="I18" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="I18" s="18" t="s">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="Q18" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="Q18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="Q19" s="0" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="Q19" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="Q20" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="Q20" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="Q22" s="0" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="Q22" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="Q24" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="Q24" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="Q26" s="0" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="Q26" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="Q27" s="0" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="Q27" s="0" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="Q28" s="0" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="Q28" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="Q30" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="Q30" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="Q32" s="0" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="Q32" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A6:E14"/>
+    <mergeCell ref="H6:I13"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A18:F22"/>
     <mergeCell ref="I18:O41"/>
